--- a/Proyecto3/universidad.xlsx
+++ b/Proyecto3/universidad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\IA\intro-AI\Proyecto3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\monotera\Documents\intro-AI\Proyecto3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA623C7-2307-4D3E-8A3B-31A1C5166C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ACD72E-2C5B-46D6-B83A-82DBAAF1B172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="4" xr2:uid="{19925595-64DC-4C4F-88DE-74CDABF99171}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19925595-64DC-4C4F-88DE-74CDABF99171}"/>
   </bookViews>
   <sheets>
     <sheet name="Exam level" sheetId="1" r:id="rId1"/>
@@ -39,45 +39,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Marks</t>
   </si>
   <si>
-    <t>e0</t>
-  </si>
-  <si>
-    <t>e1</t>
-  </si>
-  <si>
-    <t>i0</t>
-  </si>
-  <si>
-    <t>i1</t>
-  </si>
-  <si>
     <t>IQ level</t>
   </si>
   <si>
-    <t>s0</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
     <t>Exam level</t>
   </si>
   <si>
-    <t>m0</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>a0</t>
-  </si>
-  <si>
-    <t>a1</t>
+    <t>facil</t>
+  </si>
+  <si>
+    <t>dificil</t>
+  </si>
+  <si>
+    <t>bajo</t>
+  </si>
+  <si>
+    <t>alto</t>
+  </si>
+  <si>
+    <t>no aprobado</t>
+  </si>
+  <si>
+    <t>si aprobado</t>
+  </si>
+  <si>
+    <t>no adm.</t>
+  </si>
+  <si>
+    <t>si adm.</t>
   </si>
 </sst>
 </file>
@@ -269,59 +263,59 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D38C23C-7A50-45A0-9283-17F07194B362}" name="Tabla1" displayName="Tabla1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D38C23C-7A50-45A0-9283-17F07194B362}" name="Tabla1" displayName="Tabla1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:B2" xr:uid="{0D38C23C-7A50-45A0-9283-17F07194B362}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6821F581-DD75-4752-BF9E-68B94CC57704}" name="e0" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{474BD350-A76D-4CD5-96B2-66A91D43FF42}" name="e1" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{6821F581-DD75-4752-BF9E-68B94CC57704}" name="facil" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{474BD350-A76D-4CD5-96B2-66A91D43FF42}" name="dificil" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E11EC2D-2366-42BD-9C77-59F8BB8223F1}" name="Tabla2" displayName="Tabla2" ref="A1:B2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E11EC2D-2366-42BD-9C77-59F8BB8223F1}" name="Tabla2" displayName="Tabla2" ref="A1:B2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:B2" xr:uid="{0E11EC2D-2366-42BD-9C77-59F8BB8223F1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{92E74889-DCE9-461C-AB55-33973AC13503}" name="i0" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{10EB6D61-3DC5-4AEA-B7EF-14DCBBADDC31}" name="i1" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{92E74889-DCE9-461C-AB55-33973AC13503}" name="bajo" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{10EB6D61-3DC5-4AEA-B7EF-14DCBBADDC31}" name="alto" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B87C43A-4BE0-450A-BF17-959CD256FA38}" name="Tabla3" displayName="Tabla3" ref="A1:C3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B87C43A-4BE0-450A-BF17-959CD256FA38}" name="Tabla3" displayName="Tabla3" ref="A1:C3" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:C3" xr:uid="{1B87C43A-4BE0-450A-BF17-959CD256FA38}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6B70EA92-15FA-4253-B527-B661B93BE49E}" name="IQ level" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{61FE0EF8-1FB7-43EA-8BE6-7CF7866C13F2}" name="s0" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{8AF61193-09F1-4B99-94A6-B30073C14684}" name="s1" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{6B70EA92-15FA-4253-B527-B661B93BE49E}" name="IQ level" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{61FE0EF8-1FB7-43EA-8BE6-7CF7866C13F2}" name="bajo" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{8AF61193-09F1-4B99-94A6-B30073C14684}" name="alto" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{07061E81-F12C-4A53-BB09-ED1C2EF6B066}" name="Tabla4" displayName="Tabla4" ref="A1:D5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{07061E81-F12C-4A53-BB09-ED1C2EF6B066}" name="Tabla4" displayName="Tabla4" ref="A1:D5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:D5" xr:uid="{07061E81-F12C-4A53-BB09-ED1C2EF6B066}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2E697987-4157-4F84-A644-E8F2438D0960}" name="IQ level" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{59129A4E-7FA3-4B45-84C5-1EE3A0DDECC3}" name="Exam level" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{30CCE099-E6C6-46E1-822A-5702BDBEDBF3}" name="m0" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{452435D8-C0D2-499E-82CC-A4C6B6E3AA32}" name="m1" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{2E697987-4157-4F84-A644-E8F2438D0960}" name="IQ level" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{59129A4E-7FA3-4B45-84C5-1EE3A0DDECC3}" name="Exam level" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{30CCE099-E6C6-46E1-822A-5702BDBEDBF3}" name="no aprobado" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{452435D8-C0D2-499E-82CC-A4C6B6E3AA32}" name="si aprobado" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C8B8227A-91F9-473A-BC87-C978AC137AAC}" name="Tabla5" displayName="Tabla5" ref="A1:C3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C8B8227A-91F9-473A-BC87-C978AC137AAC}" name="Tabla5" displayName="Tabla5" ref="A1:C3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C3" xr:uid="{C8B8227A-91F9-473A-BC87-C978AC137AAC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8AD83454-134F-4274-B375-3E7C03CE4CC0}" name="Marks" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{96F0FB95-FE1E-436A-8398-5929F6575471}" name="a0" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{8EE90915-294B-448D-B186-91C0BDFA6620}" name="a1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8AD83454-134F-4274-B375-3E7C03CE4CC0}" name="Marks" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{96F0FB95-FE1E-436A-8398-5929F6575471}" name="no adm." dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8EE90915-294B-448D-B186-91C0BDFA6620}" name="si adm." dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -626,21 +620,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AE7EFC-DACA-44B0-B4BA-45A95ED9F28C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.7</v>
       </c>
@@ -648,7 +642,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
@@ -665,20 +659,20 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0.8</v>
       </c>
@@ -702,22 +696,22 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>0.75</v>
@@ -726,9 +720,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>0.4</v>
@@ -750,31 +744,31 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>0.6</v>
@@ -783,12 +777,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>0.9</v>
@@ -797,12 +791,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>0.5</v>
@@ -811,12 +805,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>0.8</v>
@@ -825,7 +819,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" s="2"/>
     </row>
   </sheetData>
@@ -840,26 +834,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1760B6-EF4B-4435-B98A-D51117E25B3E}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>0.6</v>
@@ -868,9 +862,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>0.9</v>
